--- a/va_facility_data_2025-02-20/Muskegon VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Muskegon%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Muskegon VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Muskegon%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2bd3e84f8b41446d99604d4fb8110c70"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ree8358affe9a41368f63394b12700fe9"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5f98ec9fc2d74b2e9e261f47d8f21c9d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R012877907bdf4fbbaa1484987b1ee6ee"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rcf2601e278554c1ba07d710d9b8e5ea0"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R181d5bf0eaa941aca58f718482a0021b"/>
   </x:sheets>
 </x:workbook>
 </file>
